--- a/Main/Backend/student_erp.xlsx
+++ b/Main/Backend/student_erp.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821D49AF-8843-4891-9EB7-271C88B8729A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{A6AEB8B0-8B52-4BCB-B822-07D064A6489D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4476"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,9 +24,6 @@
     <t>RegisterNo</t>
   </si>
   <si>
-    <t>Student Name with Initial         ( Should be in Capital Letters as per SSLC mark sheet)</t>
-  </si>
-  <si>
     <t>AASHIF AHMED S</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
     <t>YUTHISH R</t>
   </si>
   <si>
-    <t>EmailId (Instutution Id)</t>
-  </si>
-  <si>
     <t>2k22cse001@kiot.ac.in</t>
   </si>
   <si>
@@ -1029,9 +1017,6 @@
     <t>2k22cse166@kiot.ac.in</t>
   </si>
   <si>
-    <t>Programme Name</t>
-  </si>
-  <si>
     <t>CSE</t>
   </si>
   <si>
@@ -1042,13 +1027,22 @@
   </si>
   <si>
     <t>III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name         </t>
+  </si>
+  <si>
+    <t>Email id</t>
+  </si>
+  <si>
+    <t>Dept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,7 +1486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1544,7 +1538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1738,2963 +1732,2963 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9693AF8-723C-4F99-97C6-67CEA7EA16C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B6" s="4">
         <v>611222104001</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B7" s="4">
         <v>611222104002</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B8" s="4">
         <v>611222104003</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B9" s="4">
         <v>611222104004</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B10" s="4">
         <v>611222104005</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B11" s="4">
         <v>611222104006</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B12" s="4">
         <v>611222104007</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B13" s="4">
         <v>611222104008</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B14" s="4">
         <v>611222104009</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B15" s="4">
         <v>611222104010</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B16" s="4">
         <v>611222104011</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B17" s="5">
         <v>611222104012</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B18" s="4">
         <v>611222104013</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B19" s="6">
         <v>611222104014</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B20" s="7">
         <v>611222104015</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B21" s="4">
         <v>611222104016</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B22" s="4">
         <v>611222104017</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B23" s="4">
         <v>611222104018</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B24" s="4">
         <v>611222104019</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B25" s="5">
         <v>611222104020</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B26" s="4">
         <v>611222104021</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B27" s="4">
         <v>611222104022</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B28" s="4">
         <v>611222104023</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B29" s="4">
         <v>611222104024</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B30" s="4">
         <v>611222104025</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B31" s="4">
         <v>611222104026</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B32" s="4">
         <v>611222104027</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B33" s="4">
         <v>611222104028</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B34" s="4">
         <v>611222104029</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B35" s="4">
         <v>611222104030</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B36" s="8">
         <v>611222104031</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B37" s="8">
         <v>611222104032</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B38" s="8">
         <v>611222104033</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B39" s="9">
         <v>611222104034</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B40" s="9">
         <v>611222104035</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" s="8">
         <v>611222104036</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B42" s="8">
         <v>611222104037</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B43" s="8">
         <v>611222104038</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" s="8">
         <v>611222104039</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B45" s="8">
         <v>611222104040</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B46" s="8">
         <v>611222104041</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B47" s="10">
         <v>611222104042</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B48" s="8">
         <v>611222104043</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B49" s="8">
         <v>611222104044</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B50" s="8">
         <v>611222104045</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B51" s="8">
         <v>611222104046</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B52" s="8">
         <v>611222104047</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B53" s="8">
         <v>611222104048</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B54" s="8">
         <v>611222104049</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B55" s="11">
         <v>611222104050</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B56" s="8">
         <v>611222104051</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B57" s="8">
         <v>611222104052</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B58" s="8">
         <v>611222104053</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B59" s="8">
         <v>611222104054</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B60" s="8">
         <v>611222104055</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B61" s="12">
         <v>611222104056</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B62" s="13">
         <v>611222104057</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B63" s="13">
         <v>611222104058</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B64" s="12">
         <v>611222104059</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B65" s="12">
         <v>611222104060</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B66" s="13">
         <v>611222104061</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B67" s="12">
         <v>611222104062</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B68" s="12">
         <v>611222104063</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B69" s="12">
         <v>611222104064</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B70" s="12">
         <v>611222104065</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B71" s="12">
         <v>611222104066</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B72" s="12">
         <v>611222104067</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B73" s="12">
         <v>611222104068</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B74" s="12">
         <v>611222104069</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B75" s="12">
         <v>611222104070</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B76" s="12">
         <v>611222104071</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B77" s="13">
         <v>611222104072</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B78" s="12">
         <v>611222104073</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B79" s="12">
         <v>611222104074</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B80" s="12">
         <v>611222104075</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B81" s="12">
         <v>611222104076</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B82" s="13">
         <v>611222104077</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E82" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B83" s="12">
         <v>611222104078</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B84" s="12">
         <v>611222104079</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B85" s="12">
         <v>611222104080</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B86" s="12">
         <v>611222104081</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B87" s="12">
         <v>611222104082</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B88" s="12">
         <v>611222104083</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B89" s="12">
         <v>611222104084</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B90" s="12">
         <v>611222104085</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B91" s="12">
         <v>611222104086</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B92" s="12">
         <v>611222104087</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B93" s="12">
         <v>611222104088</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B94" s="12">
         <v>611222104089</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B95" s="12">
         <v>611222104090</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B96" s="14">
         <v>611222104091</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B97" s="14">
         <v>611222104092</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E97" s="49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B98" s="12">
         <v>611222104093</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B99" s="12">
         <v>611222104094</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B100" s="12">
         <v>611222104095</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B101" s="12">
         <v>611222104096</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B102" s="12">
         <v>611222104097</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B103" s="12">
         <v>611222104098</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B104" s="12">
         <v>611222104099</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B105" s="12">
         <v>611222104100</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B106" s="15">
         <v>611222104101</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E106" s="47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B107" s="12">
         <v>611222104102</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B108" s="12">
         <v>611222104103</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B109" s="12">
         <v>611222104104</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B110" s="12">
         <v>611222104105</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B111" s="12">
         <v>611222104106</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B112" s="12">
         <v>611222104107</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B113" s="12">
         <v>611222104108</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B114" s="12">
         <v>611222104109</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B115" s="12">
         <v>611222104110</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B116" s="12">
         <v>611222104111</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B117" s="16">
         <v>611222104112</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B118" s="17">
         <v>611222104113</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B119" s="17">
         <v>611222104114</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B120" s="17">
         <v>611222104115</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B121" s="17">
         <v>611222104116</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B122" s="17">
         <v>611222104117</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B123" s="18">
         <v>611222104118</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B124" s="17">
         <v>611222104119</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D124" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B125" s="17">
         <v>611222104120</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B126" s="17">
         <v>611222104121</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B127" s="17">
         <v>611222104122</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D127" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B128" s="17">
         <v>611222104123</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B129" s="17">
         <v>611222104124</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E129" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B130" s="17">
         <v>611222104125</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B131" s="17">
         <v>611222104126</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B132" s="17">
         <v>611222104127</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D132" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B133" s="18">
         <v>611222104128</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D133" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E133" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B134" s="17">
         <v>611222104129</v>
       </c>
       <c r="C134" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B135" s="17">
         <v>611222104130</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B136" s="17">
         <v>611222104131</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B137" s="17">
         <v>611222104132</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D137" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B138" s="17">
         <v>611222104133</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B139" s="18">
         <v>611222104134</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B140" s="17">
         <v>611222104135</v>
       </c>
       <c r="C140" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D140" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B141" s="17">
         <v>611222104136</v>
       </c>
       <c r="C141" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D141" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B142" s="17">
         <v>611222104137</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B143" s="17">
         <v>611222104138</v>
       </c>
       <c r="C143" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B144" s="17">
         <v>611222104139</v>
       </c>
       <c r="C144" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B145" s="17">
         <v>611222104140</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B146" s="17">
         <v>611222104141</v>
       </c>
       <c r="C146" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B147" s="17">
         <v>611222104142</v>
       </c>
       <c r="C147" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B148" s="17">
         <v>611222104143</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B149" s="17">
         <v>611222104144</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B150" s="17">
         <v>611222104145</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B151" s="17">
         <v>611222104146</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B152" s="17">
         <v>611222104147</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B153" s="17">
         <v>611222104148</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B154" s="17">
         <v>611222104149</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B155" s="17">
         <v>611222104150</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B156" s="18">
         <v>611222104151</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="44" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B157" s="17">
         <v>611222104152</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B158" s="17">
         <v>611222104153</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E158" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B159" s="17">
         <v>611222104154</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E159" s="46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B160" s="17">
         <v>611222104155</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B161" s="17">
         <v>611222104156</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B162" s="17">
         <v>611222104157</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D162" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B163" s="17">
         <v>611222104158</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B164" s="17">
         <v>611222104159</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B165" s="17">
         <v>611222104160</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B166" s="17">
         <v>611222104161</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D166" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B167" s="17">
         <v>611222104163</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B168" s="17">
         <v>611222104162</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D168" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B169" s="17">
         <v>611222104164</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D169" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B170" s="19">
         <v>611222104165</v>
       </c>
       <c r="C170" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D170" s="45" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E170" s="51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B171" s="20">
         <v>611222104166</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D171" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="53"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{284A558A-814C-4B1C-B208-ADED9C8DF7CD}"/>
-    <hyperlink ref="D21" r:id="rId2" xr:uid="{25F8F4EC-60DE-47B0-BFF2-597B66A12593}"/>
-    <hyperlink ref="D146" r:id="rId3" xr:uid="{98991057-4AA2-47EF-BEEF-8F4A2575AA11}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D21" r:id="rId2"/>
+    <hyperlink ref="D146" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
